--- a/biology/Botanique/Allium_nathaliae/Allium_nathaliae.xlsx
+++ b/biology/Botanique/Allium_nathaliae/Allium_nathaliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Allium nathaliae est une espèce de plante monocotylédone du genre Allium de la famille des Amaryllidacées. Cet oignon a été décrit pour la première fois par le botaniste russe Aleksey Petrovich Syarogin en 2004[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Allium nathaliae est une espèce de plante monocotylédone du genre Allium de la famille des Amaryllidacées. Cet oignon a été décrit pour la première fois par le botaniste russe Aleksey Petrovich Syarogin en 2004,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique sauvage en Crimée[3], il est présent dans la partie sud de la péninsule de Yalta et dans la montagne Kara-Dag[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique sauvage en Crimée, il est présent dans la partie sud de la péninsule de Yalta et dans la montagne Kara-Dag.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Géophyte bulbeux[3], cet oignon est presque brunâtre et ressemble à un œuf, avec des ormeaux bruns et gris-brun[5]. 
-Les feuilles sont au nombre de 2 à 5[5], arquées, dentelées sur les bords[4]. L'inflorescence est sphérique, compacte, à fleurs roses[4]. Le fruit est une capsule contenant des graines noires[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Géophyte bulbeux, cet oignon est presque brunâtre et ressemble à un œuf, avec des ormeaux bruns et gris-brun. 
+Les feuilles sont au nombre de 2 à 5, arquées, dentelées sur les bords. L'inflorescence est sphérique, compacte, à fleurs roses. Le fruit est une capsule contenant des graines noires.
 Il est proche de l'espèce Allium erubescens C. Koch.
-En 2006, une variété distincte a été observée - "Allium nathaliae" var. tepekermensis Seregin dans la montagne Tepe-Kermen qui se distingue des autres spécimens de l'espèce par ses feuilles tordues en spirale[4], mais  var. ``tepekermensis est toujours considéré comme un nom synonyme[1].
+En 2006, une variété distincte a été observée - "Allium nathaliae" var. tepekermensis Seregin dans la montagne Tepe-Kermen qui se distingue des autres spécimens de l'espèce par ses feuilles tordues en spirale, mais  var. ``tepekermensis est toujours considéré comme un nom synonyme.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Situation environnementale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est répertorié dans le Livre rouge de Crimée.
 </t>
